--- a/k8s.xlsx
+++ b/k8s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liudong\Desktop\tools\K8S\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A80825-61AC-4C0C-9C63-DE26E70767F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2574B6B-E01A-4C69-BB3C-B3CE36B4E3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,21 +133,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/k3s-io/k3s/releases/tag/v1.23.14%2Bk3s1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/rancher/k3s/blob/master/install.sh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装部署：
-①在github上下载对应版本K3S二进制执行文件，然后下载对应版本的images包
-②INSTALL_K3S_SKIP_DOWNLOAD=true ./install.sh  进行安装部署
-③卸载就是/usr/local/bin/k3s-uninstall.sh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>加入集群：
 ①查看集群token，cat  /var/lib/rancher/k3s/server/node-token
 ②在node节点执行此命令
@@ -458,14 +443,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>出现nmsespace删除不掉，需要如下操作
-①kubectl proxy starting to serve on 127.0.0.1:8001
-②kubectl    get  ns  calico-system   -o  json  &gt;  tmp.json
-③编辑  tmp.json，删除"finalizers": ["kubernetes"]这项配置
-④curl -k -H "Content-Type: application/json" -X PUT --data-binary @tmp.json http://127.0.0.1:8001/api/v1/namespaces/calico-system/finalize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>helm3的安装：
 wget https://github.com/helm/helm/blob/main/scripts/get-helm-3
 mv get-helm-3.txt  get-helm-3.sh
@@ -481,11 +458,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>K8S集群创建用户并使用证书和密钥
+    <t>官方文档https://docs.k3s.io/zh/quick-start
+https://github.com/rancher/k3s/blob/master/install.sh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K8S集群创建用户并使用证书和密钥进行认证
 cd /etc/kubernetes/pki/   &amp;&amp;  (umask 077; openssl genrsa -out hxg.key 2048)
 openssl req -new -key   onmouse.key -out hxg.csr -subj "/CN=onmouse"
 openssl x509 -req -in onmouse.csr -CA ca.crt -CAkey ca.key -CAcreateserial -out onmouse.crt -days 3650
 kubectl config set-credentials   onmouse  --client-certificate=./onmouse.crt --client-key=./onmouse.key --embed-certs=true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现namespace删除不掉，需要如下操作
+①kubectl proxy starting to serve on 127.0.0.1:8001
+②kubectl    get  ns  calico-system   -o  json  &gt;  tmp.json
+③编辑  tmp.json，删除"finalizers": ["kubernetes"]这项配置
+④curl -k -H "Content-Type: application/json" -X PUT --data-binary @tmp.json http://127.0.0.1:8001/api/v1/namespaces/calico-system/finalize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建集群：curl -sfL https://get.k3s.io | INSTALL_K3S_VERSION=v1.23.14+k3s1 sh - --disable=traefik  或者   curl -sfL https://rancher-mirror.rancher.cn/k3s/k3s-install.sh | INSTALL_K3S_VERSION=v1.23.14+k3s1  sh - 或者curl -sfL https://rancher-mirror.oss-cn-beijing.aliyuncs.com/k3s/k3s-install.sh | INSTALL_K3S_VERSION=v1.23.14+k3s1 sh -</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3S的hostname命名不能使用下划线</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -539,14 +537,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -582,8 +572,15 @@
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,11 +609,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -624,24 +626,29 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -921,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -942,7 +949,7 @@
     </row>
     <row r="2" spans="1:2" ht="69.75">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2"/>
     </row>
@@ -972,15 +979,15 @@
     </row>
     <row r="6" spans="1:2" ht="103.5">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="51.75">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -988,15 +995,15 @@
     </row>
     <row r="8" spans="1:2" ht="51.75">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="69">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="103.5">
@@ -1004,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1022,12 +1029,12 @@
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="69">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34.5">
@@ -1042,7 +1049,7 @@
     </row>
     <row r="22" spans="1:2" ht="138">
       <c r="A22" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
@@ -1077,152 +1084,153 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
-        <v>21</v>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="1:2" ht="34.5">
+      <c r="A31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="51.75">
+      <c r="A32" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="69">
       <c r="A33" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="12" customFormat="1">
+      <c r="A34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A37" s="14"/>
+      <c r="B37" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="69">
-      <c r="A34" s="3" t="s">
+    <row r="38" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A38" s="14"/>
+      <c r="B38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A35" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="12" t="s">
-        <v>47</v>
+      <c r="A47" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="14"/>
     </row>
     <row r="49" spans="1:2" ht="103.5">
       <c r="A49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="10" t="s">
         <v>55</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="34.5">
       <c r="A50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:2" ht="69">
       <c r="A51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="51.75">
       <c r="A52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2" ht="34.5">
       <c r="A53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" spans="1:2" ht="86.25">
       <c r="A54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="86.25">
       <c r="A55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B55" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1231,10 +1239,7 @@
     <mergeCell ref="A47:A48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A31" r:id="rId1" xr:uid="{45300664-D166-481E-A85B-73CBFDFB2E04}"/>
-    <hyperlink ref="A32" r:id="rId2" xr:uid="{19E71609-5100-40EA-8556-62326F8C8FCC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>